--- a/lezioni/excel/materiale/esercizi/esercizi_funzioni_condizionali/esercizio6/esercizio.xlsx
+++ b/lezioni/excel/materiale/esercizi/esercizi_funzioni_condizionali/esercizio6/esercizio.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trezza\Documents\scuola\lezioni\3_ambiente_foglio_di_calcolo\riferimenti_se_booleani_formattazione_condizionale\esercizio_riferimenti_se_booleani_formattazione_condizionale_5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A8C2DF-D4CE-4046-B3B9-7924B47DAD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Foglio1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -131,37 +112,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFff0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -173,18 +158,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
+        <fgColor rgb="FFc9daf8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <fgColor rgb="FFcfe2f3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -211,7 +194,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -233,98 +218,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF38761D"/>
-          <bgColor rgb="FF38761D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -351,22 +346,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,131 +433,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -513,35 +595,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="22" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -553,250 +655,689 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H8" si="0">IF(AND(F2="SI",OR(AND(B2&gt;=30,B2&lt;=40),B2&gt;4000)),A2,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>4350</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>150</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>3560</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="5">
+      <c r="H9" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="5">
+      <c r="D10" s="13">
         <v>5000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="15"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
